--- a/WorkBot/refactor/data/orders/Ithaca Bakery/Ithaca Bakery_Triphammer_2025-07-25.xlsx
+++ b/WorkBot/refactor/data/orders/Ithaca Bakery/Ithaca Bakery_Triphammer_2025-07-25.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1206,6 +1206,83 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Butter - Salted</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PERF</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Vegan Egg</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Flour - Millers Choice</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/WorkBot/refactor/data/orders/Ithaca Bakery/Ithaca Bakery_Triphammer_2025-07-25.xlsx
+++ b/WorkBot/refactor/data/orders/Ithaca Bakery/Ithaca Bakery_Triphammer_2025-07-25.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1283,6 +1283,79 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Tamper Evident - 12oz Bowl (Smoothie)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Bag Paper - 4.5x11.75 Window (RSS)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sani-T-10 Sanitizer</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>107.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>107.36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
